--- a/datasets/labor_sectoral_haryana.xlsx
+++ b/datasets/labor_sectoral_haryana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\econ_gju\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4177DA91-7CA5-49F0-B575-510EEC25183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342BCB8B-FD3B-4D02-AE21-D3E00ABA384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="10736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
